--- a/level-2/codeforces-phase-2-1/codeforces-phase-2-1.xlsx
+++ b/level-2/codeforces-phase-2-1/codeforces-phase-2-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFCB7C3-7870-439D-A6D3-FDF36AF4898B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 2.1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,19 +611,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,26 +638,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1022,7 +1009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1030,97 +1017,97 @@
       <selection pane="bottomLeft" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="12" width="15.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="62.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="7.109375" style="4" customWidth="1"/>
+    <col min="8" max="12" width="15.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5546875" style="18" customWidth="1"/>
     <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="19" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="7">
         <f>SUM(C4:C788)</f>
         <v>16</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(D4:D788)</f>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7">
         <f>SUM(E4:E788)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(F4:F788)</f>
@@ -1131,27 +1118,27 @@
         <v>8</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f t="shared" ref="H3:M3" si="0">AVERAGE(H4:H176)</f>
+        <f>AVERAGE(H4:H176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M4:M176)</f>
         <v>0</v>
       </c>
       <c r="N3" s="7">
@@ -1163,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>215</v>
       </c>
@@ -1191,7 +1178,7 @@
       </c>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>367</v>
       </c>
@@ -1219,7 +1206,7 @@
       </c>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>377</v>
       </c>
@@ -1247,7 +1234,7 @@
       </c>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>140</v>
       </c>
@@ -1275,7 +1262,7 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>149</v>
       </c>
@@ -1295,7 +1282,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10">
-        <f t="shared" ref="M8:M71" si="1">SUM(H8:L8)</f>
+        <f t="shared" ref="M8:M71" si="0">SUM(H8:L8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="17" t="s">
@@ -1303,7 +1290,7 @@
       </c>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>211</v>
       </c>
@@ -1323,7 +1310,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="17" t="s">
@@ -1331,7 +1318,7 @@
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>227</v>
       </c>
@@ -1351,7 +1338,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="17" t="s">
@@ -1359,7 +1346,7 @@
       </c>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>246</v>
       </c>
@@ -1379,7 +1366,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="17" t="s">
@@ -1387,7 +1374,7 @@
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>251</v>
       </c>
@@ -1407,7 +1394,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="17" t="s">
@@ -1415,7 +1402,7 @@
       </c>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>315</v>
       </c>
@@ -1435,7 +1422,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="17" t="s">
@@ -1443,7 +1430,7 @@
       </c>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>345</v>
       </c>
@@ -1463,7 +1450,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="17" t="s">
@@ -1471,7 +1458,7 @@
       </c>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>111</v>
       </c>
@@ -1491,7 +1478,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="17" t="s">
@@ -1499,7 +1486,7 @@
       </c>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>187</v>
       </c>
@@ -1519,7 +1506,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="17" t="s">
@@ -1527,7 +1514,7 @@
       </c>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>248</v>
       </c>
@@ -1547,7 +1534,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="17" t="s">
@@ -1555,7 +1542,7 @@
       </c>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>359</v>
       </c>
@@ -1575,7 +1562,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="17" t="s">
@@ -1583,7 +1570,7 @@
       </c>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>364</v>
       </c>
@@ -1603,7 +1590,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="17" t="s">
@@ -1611,12 +1598,12 @@
       </c>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="B20" s="9">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
@@ -1625,26 +1612,26 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B21" s="9">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -1653,23 +1640,23 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="B22" s="9">
         <v>1000</v>
@@ -1681,23 +1668,23 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>162</v>
+        <v>352</v>
       </c>
       <c r="B23" s="9">
         <v>1000</v>
@@ -1715,17 +1702,17 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O23" s="15"/>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>164</v>
+    <row r="24" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>360</v>
       </c>
       <c r="B24" s="9">
         <v>1000</v>
@@ -1743,17 +1730,17 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="15"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>255</v>
+        <v>56</v>
+      </c>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>387</v>
       </c>
       <c r="B25" s="9">
         <v>1000</v>
@@ -1771,17 +1758,17 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="B26" s="9">
         <v>1100</v>
@@ -1799,17 +1786,17 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>349</v>
+        <v>285</v>
       </c>
       <c r="B27" s="9">
         <v>1100</v>
@@ -1821,23 +1808,23 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B28" s="9">
         <v>1100</v>
@@ -1849,23 +1836,23 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
       <c r="M28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B29" s="9">
         <v>1100</v>
@@ -1877,23 +1864,23 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>110</v>
+        <v>397</v>
       </c>
       <c r="B30" s="9">
         <v>1100</v>
@@ -1911,17 +1898,17 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B31" s="9">
         <v>1200</v>
@@ -1939,17 +1926,17 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="B32" s="9">
         <v>1200</v>
@@ -1967,17 +1954,17 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="B33" s="9">
         <v>1200</v>
@@ -1989,23 +1976,23 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
       <c r="M33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B34" s="9">
         <v>1200</v>
@@ -2017,23 +2004,23 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B35" s="9">
         <v>1200</v>
@@ -2045,32 +2032,32 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="B36" s="9">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2079,26 +2066,26 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H36:L36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="B37" s="9">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="14"/>
@@ -2107,26 +2094,26 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H37:L37)</f>
         <v>0</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>280</v>
+    <row r="38" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>117</v>
       </c>
       <c r="B38" s="9">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2135,54 +2122,54 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H38:L38)</f>
         <v>0</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="B39" s="9">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H39:L39)</f>
         <v>0</v>
       </c>
       <c r="N39" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="B40" s="9">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2191,26 +2178,26 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H40:L40)</f>
         <v>0</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>328</v>
+    <row r="41" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>255</v>
       </c>
       <c r="B41" s="9">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2219,26 +2206,26 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H41:L41)</f>
         <v>0</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>374</v>
+        <v>299</v>
       </c>
       <c r="B42" s="9">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2247,26 +2234,26 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H42:L42)</f>
         <v>0</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B43" s="9">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2275,104 +2262,104 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H43:L43)</f>
         <v>0</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O43" s="15"/>
-    </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="B44" s="9">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H44:L44)</f>
         <v>0</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B45" s="9">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H45:L45)</f>
         <v>0</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>400</v>
+    <row r="46" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>110</v>
       </c>
       <c r="B46" s="9">
-        <v>1200</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+        <v>1100</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H46:L46)</f>
         <v>0</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="O46" s="15"/>
-    </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B47" s="9">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2387,20 +2374,20 @@
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H47:L47)</f>
         <v>0</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O47" s="15"/>
-    </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
-        <v>386</v>
+        <v>235</v>
       </c>
       <c r="B48" s="9">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2415,20 +2402,20 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H48:L48)</f>
         <v>0</v>
       </c>
       <c r="N48" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="B49" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2437,26 +2424,26 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H49:L49)</f>
         <v>0</v>
       </c>
       <c r="N49" s="17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="B50" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2465,26 +2452,26 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H50:L50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50" s="15"/>
-    </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>360</v>
+        <v>38</v>
+      </c>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>260</v>
       </c>
       <c r="B51" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2493,26 +2480,26 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
       <c r="M51" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H51:L51)</f>
         <v>0</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="O51" s="15"/>
+    </row>
+    <row r="52" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="B52" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2527,20 +2514,20 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H52:L52)</f>
         <v>0</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="B53" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2549,26 +2536,26 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H53:L53)</f>
         <v>0</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="O53" s="15"/>
-    </row>
-    <row r="54" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>285</v>
+        <v>41</v>
+      </c>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>280</v>
       </c>
       <c r="B54" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2577,26 +2564,26 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H54:L54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O54" s="15"/>
-    </row>
-    <row r="55" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="B55" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2611,20 +2598,20 @@
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H55:L55)</f>
         <v>0</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="O55" s="15"/>
-    </row>
-    <row r="56" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="B56" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2633,26 +2620,26 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H56:L56)</f>
         <v>0</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="O56" s="15"/>
     </row>
-    <row r="57" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="B57" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2661,23 +2648,23 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H57:L57)</f>
         <v>0</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="O57" s="15"/>
     </row>
-    <row r="58" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
-        <v>102</v>
+        <v>374</v>
       </c>
       <c r="B58" s="9">
         <v>1200</v>
@@ -2689,23 +2676,23 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H58:L58)</f>
         <v>0</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="B59" s="9">
         <v>1200</v>
@@ -2723,17 +2710,17 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H59:L59)</f>
         <v>0</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="O59" s="15"/>
     </row>
-    <row r="60" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
-        <v>186</v>
+        <v>381</v>
       </c>
       <c r="B60" s="9">
         <v>1200</v>
@@ -2751,17 +2738,17 @@
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H60:L60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="O60" s="15"/>
     </row>
-    <row r="61" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="B61" s="9">
         <v>1200</v>
@@ -2773,49 +2760,49 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
       <c r="M61" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H61:L61)</f>
         <v>0</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O61" s="15"/>
-    </row>
-    <row r="62" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>238</v>
+        <v>49</v>
+      </c>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>400</v>
       </c>
       <c r="B62" s="9">
         <v>1200</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="9">
         <v>1</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
       <c r="M62" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H62:L62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O62" s="15"/>
     </row>
-    <row r="63" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>145</v>
       </c>
@@ -2835,7 +2822,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N63" s="17" t="s">
@@ -2843,7 +2830,7 @@
       </c>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>161</v>
       </c>
@@ -2863,7 +2850,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N64" s="17" t="s">
@@ -2871,7 +2858,7 @@
       </c>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>265</v>
       </c>
@@ -2891,7 +2878,7 @@
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N65" s="17" t="s">
@@ -2899,7 +2886,7 @@
       </c>
       <c r="O65" s="15"/>
     </row>
-    <row r="66" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>356</v>
       </c>
@@ -2919,7 +2906,7 @@
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
       <c r="M66" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N66" s="17" t="s">
@@ -2927,7 +2914,7 @@
       </c>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>395</v>
       </c>
@@ -2947,7 +2934,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N67" s="17" t="s">
@@ -2955,7 +2942,7 @@
       </c>
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>134</v>
       </c>
@@ -2975,7 +2962,7 @@
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N68" s="17" t="s">
@@ -2983,7 +2970,7 @@
       </c>
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>197</v>
       </c>
@@ -3003,7 +2990,7 @@
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N69" s="17" t="s">
@@ -3011,7 +2998,7 @@
       </c>
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>223</v>
       </c>
@@ -3031,7 +3018,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N70" s="17" t="s">
@@ -3039,7 +3026,7 @@
       </c>
       <c r="O70" s="13"/>
     </row>
-    <row r="71" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>244</v>
       </c>
@@ -3059,7 +3046,7 @@
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N71" s="17" t="s">
@@ -3067,7 +3054,7 @@
       </c>
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>109</v>
       </c>
@@ -3087,7 +3074,7 @@
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="10">
-        <f t="shared" ref="M72:M116" si="2">SUM(H72:L72)</f>
+        <f t="shared" ref="M72:M97" si="1">SUM(H72:L72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="17" t="s">
@@ -3095,7 +3082,7 @@
       </c>
       <c r="O72" s="13"/>
     </row>
-    <row r="73" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>182</v>
       </c>
@@ -3115,7 +3102,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N73" s="17" t="s">
@@ -3123,7 +3110,7 @@
       </c>
       <c r="O73" s="13"/>
     </row>
-    <row r="74" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>201</v>
       </c>
@@ -3143,7 +3130,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N74" s="17" t="s">
@@ -3151,7 +3138,7 @@
       </c>
       <c r="O74" s="15"/>
     </row>
-    <row r="75" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>206</v>
       </c>
@@ -3171,7 +3158,7 @@
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
       <c r="M75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N75" s="17" t="s">
@@ -3179,7 +3166,7 @@
       </c>
       <c r="O75" s="15"/>
     </row>
-    <row r="76" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>210</v>
       </c>
@@ -3199,7 +3186,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N76" s="17" t="s">
@@ -3207,7 +3194,7 @@
       </c>
       <c r="O76" s="13"/>
     </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>212</v>
       </c>
@@ -3227,7 +3214,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N77" s="17" t="s">
@@ -3235,7 +3222,7 @@
       </c>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>213</v>
       </c>
@@ -3255,7 +3242,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N78" s="17" t="s">
@@ -3263,7 +3250,7 @@
       </c>
       <c r="O78" s="15"/>
     </row>
-    <row r="79" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>323</v>
       </c>
@@ -3283,7 +3270,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N79" s="17" t="s">
@@ -3291,7 +3278,7 @@
       </c>
       <c r="O79" s="15"/>
     </row>
-    <row r="80" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>331</v>
       </c>
@@ -3311,7 +3298,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N80" s="17" t="s">
@@ -3319,7 +3306,7 @@
       </c>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>358</v>
       </c>
@@ -3339,7 +3326,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N81" s="17" t="s">
@@ -3347,7 +3334,7 @@
       </c>
       <c r="O81" s="15"/>
     </row>
-    <row r="82" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>366</v>
       </c>
@@ -3367,7 +3354,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N82" s="17" t="s">
@@ -3375,7 +3362,7 @@
       </c>
       <c r="O82" s="13"/>
     </row>
-    <row r="83" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>371</v>
       </c>
@@ -3395,7 +3382,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N83" s="17" t="s">
@@ -3403,7 +3390,7 @@
       </c>
       <c r="O83" s="15"/>
     </row>
-    <row r="84" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>382</v>
       </c>
@@ -3423,7 +3410,7 @@
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N84" s="17" t="s">
@@ -3431,7 +3418,7 @@
       </c>
       <c r="O84" s="15"/>
     </row>
-    <row r="85" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>103</v>
       </c>
@@ -3451,7 +3438,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N85" s="17" t="s">
@@ -3459,7 +3446,7 @@
       </c>
       <c r="O85" s="15"/>
     </row>
-    <row r="86" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>151</v>
       </c>
@@ -3479,7 +3466,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N86" s="17" t="s">
@@ -3487,7 +3474,7 @@
       </c>
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>160</v>
       </c>
@@ -3507,7 +3494,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N87" s="17" t="s">
@@ -3515,7 +3502,7 @@
       </c>
       <c r="O87" s="15"/>
     </row>
-    <row r="88" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>175</v>
       </c>
@@ -3535,7 +3522,7 @@
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N88" s="17" t="s">
@@ -3543,7 +3530,7 @@
       </c>
       <c r="O88" s="15"/>
     </row>
-    <row r="89" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>191</v>
       </c>
@@ -3563,7 +3550,7 @@
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N89" s="17" t="s">
@@ -3571,7 +3558,7 @@
       </c>
       <c r="O89" s="13"/>
     </row>
-    <row r="90" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>121</v>
       </c>
@@ -3591,7 +3578,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N90" s="17" t="s">
@@ -3599,7 +3586,7 @@
       </c>
       <c r="O90" s="13"/>
     </row>
-    <row r="91" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>157</v>
       </c>
@@ -3619,7 +3606,7 @@
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
       <c r="M91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N91" s="17" t="s">
@@ -3627,7 +3614,7 @@
       </c>
       <c r="O91" s="15"/>
     </row>
-    <row r="92" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>310</v>
       </c>
@@ -3647,7 +3634,7 @@
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
       <c r="M92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N92" s="17" t="s">
@@ -3655,7 +3642,7 @@
       </c>
       <c r="O92" s="13"/>
     </row>
-    <row r="93" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>214</v>
       </c>
@@ -3675,7 +3662,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N93" s="17" t="s">
@@ -3683,7 +3670,7 @@
       </c>
       <c r="O93" s="15"/>
     </row>
-    <row r="94" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>343</v>
       </c>
@@ -3703,7 +3690,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N94" s="17" t="s">
@@ -3711,7 +3698,7 @@
       </c>
       <c r="O94" s="13"/>
     </row>
-    <row r="95" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>241</v>
       </c>
@@ -3731,7 +3718,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
       <c r="M95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N95" s="17" t="s">
@@ -3739,7 +3726,7 @@
       </c>
       <c r="O95" s="15"/>
     </row>
-    <row r="96" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>276</v>
       </c>
@@ -3759,7 +3746,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N96" s="17" t="s">
@@ -3767,7 +3754,7 @@
       </c>
       <c r="O96" s="15"/>
     </row>
-    <row r="97" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>304</v>
       </c>
@@ -3787,7 +3774,7 @@
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
       <c r="M97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N97" s="17" t="s">
@@ -3795,7 +3782,7 @@
       </c>
       <c r="O97" s="15"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
@@ -3804,7 +3791,7 @@
       <c r="L98" s="14"/>
       <c r="M98" s="10"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
@@ -3813,7 +3800,7 @@
       <c r="L99" s="14"/>
       <c r="M99" s="10"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
@@ -3822,7 +3809,7 @@
       <c r="L100" s="14"/>
       <c r="M100" s="10"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B101" s="3"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -3831,7 +3818,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="10"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -3840,7 +3827,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="10"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
@@ -3849,7 +3836,7 @@
       <c r="L103" s="14"/>
       <c r="M103" s="10"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
@@ -3858,7 +3845,7 @@
       <c r="L104" s="14"/>
       <c r="M104" s="10"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B105" s="3"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
@@ -3867,7 +3854,7 @@
       <c r="L105" s="14"/>
       <c r="M105" s="10"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
@@ -3876,7 +3863,7 @@
       <c r="L106" s="14"/>
       <c r="M106" s="10"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B107" s="3"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -3885,7 +3872,7 @@
       <c r="L107" s="9"/>
       <c r="M107" s="10"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
@@ -3894,7 +3881,7 @@
       <c r="L108" s="14"/>
       <c r="M108" s="10"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
@@ -3903,7 +3890,7 @@
       <c r="L109" s="14"/>
       <c r="M109" s="10"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
@@ -3912,7 +3899,7 @@
       <c r="L110" s="14"/>
       <c r="M110" s="10"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
@@ -3921,7 +3908,7 @@
       <c r="L111" s="14"/>
       <c r="M111" s="10"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="3"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
@@ -3930,7 +3917,7 @@
       <c r="L112" s="14"/>
       <c r="M112" s="10"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="3"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
@@ -3939,7 +3926,7 @@
       <c r="L113" s="14"/>
       <c r="M113" s="10"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="3"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
@@ -3948,7 +3935,7 @@
       <c r="L114" s="14"/>
       <c r="M114" s="10"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
@@ -3957,7 +3944,7 @@
       <c r="L115" s="14"/>
       <c r="M115" s="10"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
@@ -3966,7 +3953,7 @@
       <c r="L116" s="14"/>
       <c r="M116" s="10"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -3975,7 +3962,7 @@
       <c r="L117" s="9"/>
       <c r="M117" s="10"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
@@ -3984,7 +3971,7 @@
       <c r="L118" s="14"/>
       <c r="M118" s="10"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
@@ -3993,7 +3980,7 @@
       <c r="L119" s="14"/>
       <c r="M119" s="10"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
@@ -4002,7 +3989,7 @@
       <c r="L120" s="14"/>
       <c r="M120" s="10"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
@@ -4011,7 +3998,7 @@
       <c r="L121" s="14"/>
       <c r="M121" s="10"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
@@ -4020,7 +4007,7 @@
       <c r="L122" s="14"/>
       <c r="M122" s="10"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
@@ -4029,7 +4016,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="10"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
@@ -4038,7 +4025,7 @@
       <c r="L124" s="14"/>
       <c r="M124" s="10"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
@@ -4047,7 +4034,7 @@
       <c r="L125" s="14"/>
       <c r="M125" s="10"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
@@ -4056,7 +4043,7 @@
       <c r="L126" s="14"/>
       <c r="M126" s="10"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
@@ -4065,7 +4052,7 @@
       <c r="L127" s="14"/>
       <c r="M127" s="10"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
@@ -4074,7 +4061,7 @@
       <c r="L128" s="14"/>
       <c r="M128" s="10"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
@@ -4083,7 +4070,7 @@
       <c r="L129" s="14"/>
       <c r="M129" s="10"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
@@ -4092,7 +4079,7 @@
       <c r="L130" s="14"/>
       <c r="M130" s="10"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4101,7 +4088,7 @@
       <c r="L131" s="9"/>
       <c r="M131" s="10"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
@@ -4110,7 +4097,7 @@
       <c r="L132" s="14"/>
       <c r="M132" s="10"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
@@ -4119,7 +4106,7 @@
       <c r="L133" s="14"/>
       <c r="M133" s="10"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
@@ -4128,7 +4115,7 @@
       <c r="L134" s="14"/>
       <c r="M134" s="10"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
@@ -4137,7 +4124,7 @@
       <c r="L135" s="14"/>
       <c r="M135" s="10"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
@@ -4146,7 +4133,7 @@
       <c r="L136" s="14"/>
       <c r="M136" s="10"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -4155,7 +4142,7 @@
       <c r="L137" s="9"/>
       <c r="M137" s="10"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
@@ -4164,7 +4151,7 @@
       <c r="L138" s="14"/>
       <c r="M138" s="10"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
@@ -4173,7 +4160,7 @@
       <c r="L139" s="14"/>
       <c r="M139" s="10"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -4182,7 +4169,7 @@
       <c r="L140" s="9"/>
       <c r="M140" s="10"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
@@ -4191,7 +4178,7 @@
       <c r="L141" s="14"/>
       <c r="M141" s="10"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
@@ -4200,7 +4187,7 @@
       <c r="L142" s="14"/>
       <c r="M142" s="10"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="3"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
@@ -4209,7 +4196,7 @@
       <c r="L143" s="14"/>
       <c r="M143" s="10"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -4218,7 +4205,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="10"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -4227,7 +4214,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="10"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
@@ -4236,7 +4223,7 @@
       <c r="L146" s="14"/>
       <c r="M146" s="10"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
@@ -4245,7 +4232,7 @@
       <c r="L147" s="14"/>
       <c r="M147" s="10"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
@@ -4254,7 +4241,7 @@
       <c r="L148" s="14"/>
       <c r="M148" s="10"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -4263,7 +4250,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="10"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="3"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -4272,7 +4259,7 @@
       <c r="L150" s="9"/>
       <c r="M150" s="10"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
@@ -4281,7 +4268,7 @@
       <c r="L151" s="14"/>
       <c r="M151" s="10"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
@@ -4290,7 +4277,7 @@
       <c r="L152" s="14"/>
       <c r="M152" s="10"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="3"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
@@ -4299,7 +4286,7 @@
       <c r="L153" s="14"/>
       <c r="M153" s="10"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="3"/>
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
@@ -4308,7 +4295,7 @@
       <c r="L154" s="14"/>
       <c r="M154" s="10"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -4317,7 +4304,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="10"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
@@ -4326,7 +4313,7 @@
       <c r="L156" s="14"/>
       <c r="M156" s="10"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
@@ -4335,7 +4322,7 @@
       <c r="L157" s="14"/>
       <c r="M157" s="10"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
@@ -4344,7 +4331,7 @@
       <c r="L158" s="14"/>
       <c r="M158" s="10"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
@@ -4353,7 +4340,7 @@
       <c r="L159" s="14"/>
       <c r="M159" s="10"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
@@ -4362,7 +4349,7 @@
       <c r="L160" s="14"/>
       <c r="M160" s="10"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
@@ -4371,7 +4358,7 @@
       <c r="L161" s="14"/>
       <c r="M161" s="10"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
@@ -4380,7 +4367,7 @@
       <c r="L162" s="14"/>
       <c r="M162" s="10"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
@@ -4389,7 +4376,7 @@
       <c r="L163" s="14"/>
       <c r="M163" s="10"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="3"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
@@ -4398,7 +4385,7 @@
       <c r="L164" s="14"/>
       <c r="M164" s="10"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
@@ -4407,7 +4394,7 @@
       <c r="L165" s="14"/>
       <c r="M165" s="10"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
@@ -4416,7 +4403,7 @@
       <c r="L166" s="14"/>
       <c r="M166" s="10"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
@@ -4425,7 +4412,7 @@
       <c r="L167" s="14"/>
       <c r="M167" s="10"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
@@ -4434,7 +4421,7 @@
       <c r="L168" s="14"/>
       <c r="M168" s="10"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
@@ -4443,7 +4430,7 @@
       <c r="L169" s="14"/>
       <c r="M169" s="10"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
@@ -4452,7 +4439,7 @@
       <c r="L170" s="14"/>
       <c r="M170" s="10"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
@@ -4461,7 +4448,7 @@
       <c r="L171" s="14"/>
       <c r="M171" s="10"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
@@ -4470,7 +4457,7 @@
       <c r="L172" s="14"/>
       <c r="M172" s="10"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
@@ -4479,7 +4466,7 @@
       <c r="L173" s="14"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
@@ -4488,7 +4475,7 @@
       <c r="L174" s="14"/>
       <c r="M174" s="10"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
@@ -4497,7 +4484,7 @@
       <c r="L175" s="14"/>
       <c r="M175" s="10"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="3"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
@@ -4506,83 +4493,82 @@
       <c r="L176" s="14"/>
       <c r="M176" s="10"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A4:J303">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J303">
     <sortCondition descending="1" ref="C4:C303"/>
     <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
     <sortCondition descending="1" ref="F4:F303"/>
     <sortCondition descending="1" ref="G4:G303"/>
     <sortCondition ref="B4:B303"/>
@@ -4593,8 +4579,8 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4604,58 +4590,48 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="13" priority="109" operator="equal">
+  <conditionalFormatting sqref="O7 B4:B97 A12:A43 A54:A64 N4:N97">
+    <cfRule type="cellIs" dxfId="11" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" dxfId="12" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24:O31">
-    <cfRule type="cellIs" dxfId="11" priority="107" operator="equal">
+  <conditionalFormatting sqref="O40:O47">
+    <cfRule type="cellIs" dxfId="9" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O35:O43">
-    <cfRule type="cellIs" dxfId="10" priority="106" operator="equal">
+  <conditionalFormatting sqref="O51:O59">
+    <cfRule type="cellIs" dxfId="8" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A1048576">
-    <cfRule type="cellIs" dxfId="9" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37 A4:A9 A12:A27 A65:A97 N4:N97 B4:B97">
-    <cfRule type="cellIs" dxfId="8" priority="57" operator="equal">
+  <conditionalFormatting sqref="A53 A4:A9 A65:A97">
+    <cfRule type="cellIs" dxfId="6" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="7" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A11 N4 N7:N11">
-    <cfRule type="cellIs" dxfId="6" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A24 N17:N24">
-    <cfRule type="cellIs" dxfId="5" priority="54" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A36 N28:N36">
-    <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:A64 N38:N64">
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
+  <conditionalFormatting sqref="A44:A52 N44:N52">
+    <cfRule type="cellIs" dxfId="3" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4675,99 +4651,99 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N34" r:id="rId1"/>
-    <hyperlink ref="N52" r:id="rId2"/>
-    <hyperlink ref="N68" r:id="rId3"/>
-    <hyperlink ref="N61" r:id="rId4"/>
-    <hyperlink ref="N86" r:id="rId5"/>
-    <hyperlink ref="N53" r:id="rId6"/>
-    <hyperlink ref="N62" r:id="rId7"/>
-    <hyperlink ref="N70" r:id="rId8"/>
-    <hyperlink ref="N7" r:id="rId9"/>
-    <hyperlink ref="N27" r:id="rId10"/>
-    <hyperlink ref="N95" r:id="rId11"/>
-    <hyperlink ref="N87" r:id="rId12"/>
-    <hyperlink ref="N16" r:id="rId13"/>
-    <hyperlink ref="N32" r:id="rId14"/>
-    <hyperlink ref="N33" r:id="rId15"/>
-    <hyperlink ref="N93" r:id="rId16"/>
-    <hyperlink ref="N76" r:id="rId17"/>
-    <hyperlink ref="N59" r:id="rId18"/>
-    <hyperlink ref="N75" r:id="rId19"/>
-    <hyperlink ref="N63" r:id="rId20"/>
-    <hyperlink ref="N73" r:id="rId21"/>
-    <hyperlink ref="N22" r:id="rId22"/>
-    <hyperlink ref="N90" r:id="rId23"/>
-    <hyperlink ref="N31" r:id="rId24"/>
-    <hyperlink ref="N85" r:id="rId25"/>
-    <hyperlink ref="N72" r:id="rId26"/>
-    <hyperlink ref="N55" r:id="rId27"/>
-    <hyperlink ref="N58" r:id="rId28"/>
-    <hyperlink ref="N47" r:id="rId29"/>
-    <hyperlink ref="N69" r:id="rId30"/>
-    <hyperlink ref="N24" r:id="rId31"/>
-    <hyperlink ref="N39" r:id="rId32"/>
-    <hyperlink ref="N37" r:id="rId33"/>
-    <hyperlink ref="N21" r:id="rId34"/>
-    <hyperlink ref="N60" r:id="rId35"/>
-    <hyperlink ref="N49" r:id="rId36"/>
-    <hyperlink ref="N6" r:id="rId37"/>
-    <hyperlink ref="N5" r:id="rId38"/>
-    <hyperlink ref="N4" r:id="rId39"/>
-    <hyperlink ref="N9" r:id="rId40"/>
-    <hyperlink ref="N36" r:id="rId41"/>
-    <hyperlink ref="N29" r:id="rId42"/>
-    <hyperlink ref="N26" r:id="rId43"/>
-    <hyperlink ref="N40" r:id="rId44"/>
-    <hyperlink ref="N50" r:id="rId45"/>
-    <hyperlink ref="N42" r:id="rId46"/>
-    <hyperlink ref="N66" r:id="rId47"/>
-    <hyperlink ref="N67" r:id="rId48"/>
-    <hyperlink ref="N35" r:id="rId49"/>
-    <hyperlink ref="N56" r:id="rId50"/>
-    <hyperlink ref="N12" r:id="rId51"/>
-    <hyperlink ref="N19" r:id="rId52"/>
-    <hyperlink ref="N48" r:id="rId53"/>
-    <hyperlink ref="N79" r:id="rId54"/>
-    <hyperlink ref="N71" r:id="rId55"/>
-    <hyperlink ref="N14" r:id="rId56"/>
-    <hyperlink ref="N28" r:id="rId57"/>
-    <hyperlink ref="N65" r:id="rId58"/>
-    <hyperlink ref="N83" r:id="rId59"/>
-    <hyperlink ref="N45" r:id="rId60"/>
-    <hyperlink ref="N80" r:id="rId61"/>
-    <hyperlink ref="N41" r:id="rId62"/>
-    <hyperlink ref="N89" r:id="rId63"/>
-    <hyperlink ref="N82" r:id="rId64"/>
-    <hyperlink ref="N92" r:id="rId65"/>
-    <hyperlink ref="N81" r:id="rId66"/>
-    <hyperlink ref="N23" r:id="rId67"/>
-    <hyperlink ref="N17" r:id="rId68"/>
-    <hyperlink ref="N54" r:id="rId69"/>
-    <hyperlink ref="N84" r:id="rId70"/>
-    <hyperlink ref="N43" r:id="rId71"/>
-    <hyperlink ref="N15" r:id="rId72"/>
-    <hyperlink ref="N18" r:id="rId73"/>
-    <hyperlink ref="N94" r:id="rId74"/>
-    <hyperlink ref="N88" r:id="rId75"/>
-    <hyperlink ref="N11" r:id="rId76"/>
-    <hyperlink ref="N44" r:id="rId77"/>
-    <hyperlink ref="N91" r:id="rId78"/>
-    <hyperlink ref="N77" r:id="rId79"/>
-    <hyperlink ref="N30" r:id="rId80"/>
-    <hyperlink ref="N10" r:id="rId81"/>
-    <hyperlink ref="N74" r:id="rId82"/>
-    <hyperlink ref="N64" r:id="rId83"/>
-    <hyperlink ref="N57" r:id="rId84"/>
-    <hyperlink ref="N8" r:id="rId85"/>
-    <hyperlink ref="N13" r:id="rId86"/>
-    <hyperlink ref="N78" r:id="rId87"/>
-    <hyperlink ref="N96" r:id="rId88"/>
-    <hyperlink ref="N25" r:id="rId89"/>
-    <hyperlink ref="N97" r:id="rId90"/>
-    <hyperlink ref="N51" r:id="rId91"/>
-    <hyperlink ref="N46" r:id="rId92"/>
-    <hyperlink ref="N38" r:id="rId93"/>
+    <hyperlink ref="N50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N25" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N68" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N34" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N86" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N70" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N43" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N95" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N87" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N48" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N93" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N76" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N32" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N75" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N73" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N90" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N85" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N72" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N69" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N55" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N53" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N33" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N6" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N5" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N4" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N9" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N52" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N42" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N23" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N66" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N67" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N21" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N79" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N71" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N14" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N65" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N83" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N89" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="N82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N92" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N81" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="N39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N17" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N27" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N84" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N59" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N15" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N18" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N94" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="N11" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="N60" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="N77" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N46" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="N10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="N74" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N64" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N30" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N8" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N13" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N78" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N96" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N41" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N97" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N24" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N62" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N54" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId94"/>

--- a/level-2/codeforces-phase-2-1/codeforces-phase-2-1.xlsx
+++ b/level-2/codeforces-phase-2-1/codeforces-phase-2-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB3C64D-C05E-4180-BEC3-D82DD659A6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAD2047-3AAC-49F5-B98C-A50C3CB7AC64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,189 +46,6 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/368/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/706/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/732/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/363/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/227/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/242/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/160/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/686/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/200/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/734/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/182/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/265/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/268/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/447/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/535/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/667/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/670/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/733/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/463/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/467/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/519/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/581/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/592/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/721/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/731/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/157/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/266/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/746/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/499/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/672/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/688/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/747/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/284/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/501/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/669/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/723/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/765/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/313/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/389/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/405/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/234/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/263/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/465/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/680/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/764/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/192/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/218/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/259/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/339/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/381/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/427/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/556/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/155/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/347/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/355/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/362/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/365/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/596/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/629/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/705/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/735/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -250,12 +67,6 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/935/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/950/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/831/B</t>
   </si>
   <si>
@@ -280,30 +91,12 @@
     <t>https://codeforces.com/problemset/problem/801/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/822/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/805/B</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/864/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/545/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/712/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/754/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/758/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/116/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/110/B</t>
   </si>
   <si>
@@ -328,18 +121,9 @@
     <t>https://codeforces.com/problemset/problem/25/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/766/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/967/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/898/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/104/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/987/B</t>
   </si>
   <si>
@@ -376,12 +160,6 @@
     <t>https://codeforces.com/problemset/problem/102/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/835/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/46/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/12/B</t>
   </si>
   <si>
@@ -406,9 +184,6 @@
     <t>https://codeforces.com/problemset/problem/106/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/919/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/975/B</t>
   </si>
   <si>
@@ -416,6 +191,231 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/66/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/116/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/104/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/46/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/935/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/732/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/368/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/706/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/363/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/227/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/242/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/160/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/686/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/950/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/266/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/746/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/747/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/499/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/672/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/688/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/284/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/669/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/822/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/501/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/723/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/765/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/313/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/389/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/405/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/545/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/712/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/754/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/758/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/734/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/200/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/265/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/268/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/447/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/670/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/157/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/766/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/535/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/667/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/733/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/463/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/467/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/519/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/581/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/592/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/721/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/731/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/898/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/263/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/764/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/234/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/465/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/680/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/339/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/182/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/218/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/381/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/427/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/155/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/347/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/355/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/362/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/365/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/596/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/705/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/735/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/835/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/192/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/259/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/556/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/629/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/919/B</t>
   </si>
 </sst>
 </file>
@@ -1340,25 +1340,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>2</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="N5" s="11"/>
     </row>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="N6" s="11"/>
     </row>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N7" s="11"/>
     </row>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N8" s="11"/>
     </row>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N9" s="11"/>
     </row>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N10" s="11"/>
     </row>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N11" s="11"/>
     </row>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N12" s="11"/>
     </row>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N13" s="13"/>
     </row>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N14" s="11"/>
     </row>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N15" s="11"/>
     </row>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="N16" s="13"/>
     </row>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="N17" s="11"/>
     </row>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="N18" s="11"/>
     </row>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N21" s="11"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N22" s="11"/>
     </row>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="N23" s="13"/>
     </row>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N24" s="11"/>
     </row>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="N25" s="11"/>
     </row>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N26" s="13"/>
     </row>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="N27" s="13"/>
     </row>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N28" s="13"/>
     </row>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="N29" s="13"/>
     </row>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N30" s="13"/>
     </row>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="N31" s="11"/>
     </row>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="N32" s="13"/>
     </row>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="N33" s="13"/>
     </row>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N34" s="13"/>
     </row>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="N35" s="13"/>
     </row>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="N36" s="11"/>
     </row>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="N37" s="11"/>
     </row>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N38" s="11"/>
     </row>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N39" s="13"/>
     </row>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N40" s="13"/>
     </row>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N41" s="11"/>
     </row>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N42" s="11"/>
     </row>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="N43" s="11"/>
     </row>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="N44" s="11"/>
     </row>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="N45" s="11"/>
     </row>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N46" s="11"/>
     </row>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N47" s="11"/>
     </row>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N48" s="11"/>
     </row>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N49" s="11"/>
     </row>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="N50" s="11"/>
     </row>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="N51" s="13"/>
     </row>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="N52" s="11"/>
     </row>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="N53" s="11"/>
     </row>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="N54" s="13"/>
     </row>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="N55" s="13"/>
     </row>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="N56" s="11"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="N57" s="13"/>
     </row>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="N58" s="13"/>
     </row>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N59" s="11"/>
     </row>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="N60" s="13"/>
     </row>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="15" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N61" s="11"/>
     </row>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N62" s="11"/>
     </row>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="15" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="N63" s="13"/>
     </row>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N64" s="11"/>
     </row>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="N65" s="11"/>
     </row>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N66" s="11"/>
     </row>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="N67" s="11"/>
     </row>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="N68" s="11"/>
     </row>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="N69" s="11"/>
     </row>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="15" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N70" s="11"/>
     </row>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N71" s="11"/>
     </row>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="15" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="N72" s="13"/>
     </row>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="15" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="N73" s="13"/>
     </row>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="15" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="N74" s="11"/>
     </row>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N75" s="11"/>
     </row>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="15" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="N76" s="13"/>
     </row>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="15" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="N77" s="13"/>
     </row>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="15" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="N78" s="11"/>
     </row>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="15" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="N79" s="13"/>
     </row>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="15" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="N80" s="11"/>
     </row>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N81" s="13"/>
     </row>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="15" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="N82" s="13"/>
     </row>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="15" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="N83" s="13"/>
     </row>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N84" s="11"/>
     </row>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="15" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N85" s="13"/>
     </row>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="15" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="N86" s="13"/>
     </row>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="15" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="N87" s="11"/>
     </row>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="15" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N88" s="11"/>
     </row>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="15" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="N89" s="13"/>
     </row>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="N90" s="11"/>
     </row>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="15" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="N91" s="13"/>
     </row>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="15" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="N92" s="11"/>
     </row>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="15" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="N93" s="13"/>
     </row>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="N94" s="13"/>
     </row>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="15" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="N95" s="13"/>
     </row>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="15" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="15" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="15" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="15" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="15" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="15" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="15" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="15" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="15" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="15" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="15" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="15" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="15" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="15" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="15" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="15" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="15" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -5050,120 +5050,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M26" r:id="rId1" display="http://codeforces.com/problemset/problem/349/B" xr:uid="{42D622E9-4CA4-4CFB-81FF-1A5002FA13D6}"/>
-    <hyperlink ref="M52" r:id="rId2" display="http://codeforces.com/problemset/problem/534/B" xr:uid="{F8095F58-5AE6-4F26-9CB5-808154B4D4D4}"/>
-    <hyperlink ref="M4" r:id="rId3" display="http://codeforces.com/problemset/problem/602/B" xr:uid="{1EA59D5B-A7FB-4C66-95B8-8729676B86FF}"/>
-    <hyperlink ref="M5" r:id="rId4" display="http://codeforces.com/problemset/problem/659/B" xr:uid="{4F523BA4-D458-4742-89AF-5A9363B861FC}"/>
-    <hyperlink ref="M38" r:id="rId5" display="http://codeforces.com/problemset/problem/518/B" xr:uid="{63851C58-4D2A-4E62-9393-C65953241089}"/>
-    <hyperlink ref="M14" r:id="rId6" display="http://codeforces.com/problemset/problem/445/B" xr:uid="{3626412A-FA28-46FD-B0E5-947033A5E966}"/>
-    <hyperlink ref="M29" r:id="rId7" display="http://codeforces.com/problemset/problem/697/B" xr:uid="{D59A0070-F078-48F1-A7F7-7AA8ED80106D}"/>
-    <hyperlink ref="M34" r:id="rId8" display="http://codeforces.com/problemset/problem/282/B" xr:uid="{E2579A26-7F15-432C-9DE8-CEB6F951F925}"/>
-    <hyperlink ref="M84" r:id="rId9" display="http://codeforces.com/problemset/problem/165/B" xr:uid="{4D4A5B09-584E-4AB5-A670-6A3544ED2E9A}"/>
-    <hyperlink ref="M65" r:id="rId10" display="http://codeforces.com/problemset/problem/322/B" xr:uid="{34DB428F-7C32-45F4-A4D7-763D9CCB7F81}"/>
-    <hyperlink ref="M16" r:id="rId11" display="http://codeforces.com/problemset/problem/505/B" xr:uid="{C0FB724F-673A-42FD-8A8C-4E36402D95AE}"/>
-    <hyperlink ref="M79" r:id="rId12" display="http://codeforces.com/problemset/problem/614/B" xr:uid="{5FD9D8E0-DB21-49E6-9585-AB29161B0456}"/>
-    <hyperlink ref="M20" r:id="rId13" display="http://codeforces.com/problemset/problem/574/B" xr:uid="{8B0B6D4A-C78A-4F41-8C68-F53441D97AF0}"/>
-    <hyperlink ref="M92" r:id="rId14" display="http://codeforces.com/problemset/problem/676/B" xr:uid="{CF94DC69-C7FB-40AE-A2BF-F184C9432F6F}"/>
-    <hyperlink ref="M105" r:id="rId15" display="http://codeforces.com/problemset/problem/577/B" xr:uid="{EB75F101-9E68-49D8-8B58-91A4BBB9359F}"/>
-    <hyperlink ref="M15" r:id="rId16" display="http://codeforces.com/problemset/problem/490/B" xr:uid="{8381635E-D648-4CCF-A901-4D92E9ED8FA7}"/>
-    <hyperlink ref="M108" r:id="rId17" display="http://codeforces.com/problemset/problem/496/B" xr:uid="{39530AE6-B0D9-4D4D-B601-A7ADF58D98EF}"/>
-    <hyperlink ref="M39" r:id="rId18" display="http://codeforces.com/problemset/problem/608/B" xr:uid="{0D90E9A1-0373-4EAD-8480-216BFCAD9532}"/>
-    <hyperlink ref="M91" r:id="rId19" display="http://codeforces.com/problemset/problem/599/B" xr:uid="{23E91160-AAA7-48D4-9E58-46296CB92BD3}"/>
-    <hyperlink ref="M13" r:id="rId20" display="http://codeforces.com/problemset/problem/435/B" xr:uid="{B5E96092-46F6-424D-9D02-C090EF900A6E}"/>
-    <hyperlink ref="M67" r:id="rId21" display="http://codeforces.com/problemset/problem/495/B" xr:uid="{F86F6C58-80E1-4286-BF7D-38CEDD96E728}"/>
-    <hyperlink ref="M12" r:id="rId22" display="http://codeforces.com/problemset/problem/369/B" xr:uid="{17ECB589-E947-48ED-8EAD-8A8B688B0C16}"/>
-    <hyperlink ref="M102" r:id="rId23" display="http://codeforces.com/problemset/problem/540/B" xr:uid="{B5BF4A9F-D3A2-4EA9-A7F3-5B0BC1E25791}"/>
-    <hyperlink ref="M10" r:id="rId24" display="http://codeforces.com/problemset/problem/332/B" xr:uid="{25A0F8BB-673E-42EC-BABB-367AC5DCC9C4}"/>
-    <hyperlink ref="M60" r:id="rId25" display="http://codeforces.com/problemset/problem/437/B" xr:uid="{603DCB9C-B120-42D7-896D-1982A73126F1}"/>
-    <hyperlink ref="M99" r:id="rId26" display="http://codeforces.com/problemset/problem/689/B" xr:uid="{76D895DA-9F4A-4FF2-83FA-F2099713CE6B}"/>
-    <hyperlink ref="M23" r:id="rId27" display="http://codeforces.com/problemset/problem/615/B" xr:uid="{ADE97B2C-B68B-4733-A3B9-5CB7FFBD038E}"/>
-    <hyperlink ref="M85" r:id="rId28" display="http://codeforces.com/problemset/problem/320/B" xr:uid="{7E7DC56D-D657-47A6-9913-7C72C0943CAC}"/>
-    <hyperlink ref="M17" r:id="rId29" display="http://codeforces.com/problemset/problem/527/B" xr:uid="{20017A7A-9604-4627-A94E-3E2B7C0AE59E}"/>
-    <hyperlink ref="M82" r:id="rId30" display="http://codeforces.com/problemset/problem/745/B" xr:uid="{0CE08360-E1DF-4272-8695-DD7542AAA8BE}"/>
-    <hyperlink ref="M49" r:id="rId31" display="http://codeforces.com/problemset/problem/664/B" xr:uid="{8419F2E5-8782-4FA5-9F6C-DA044F32F3FD}"/>
-    <hyperlink ref="M106" r:id="rId32" display="http://codeforces.com/problemset/problem/233/B" xr:uid="{58584449-34B0-4EE1-843E-613CC628F31A}"/>
-    <hyperlink ref="M59" r:id="rId33" display="http://codeforces.com/problemset/problem/415/B" xr:uid="{3DF56F04-97D9-4BDC-A4D6-DA2C5A92E9D5}"/>
-    <hyperlink ref="M94" r:id="rId34" display="http://codeforces.com/problemset/problem/760/B" xr:uid="{F71D37CA-9626-4FB2-843B-B11E5FDBC090}"/>
-    <hyperlink ref="M9" r:id="rId35" display="http://codeforces.com/problemset/problem/300/B" xr:uid="{AA2F59F3-BC74-492F-B19B-FA17BEA99BFA}"/>
-    <hyperlink ref="M103" r:id="rId36" display="http://codeforces.com/problemset/problem/353/B" xr:uid="{ED102ABF-619E-4020-A87D-6F50E922DEC9}"/>
-    <hyperlink ref="M37" r:id="rId37" display="http://codeforces.com/problemset/problem/443/B" xr:uid="{14C59C45-54F7-4E9C-9668-9FE0F7DCC42D}"/>
-    <hyperlink ref="M80" r:id="rId38" display="http://codeforces.com/problemset/problem/673/B" xr:uid="{2051B559-138F-4FF4-8598-8584403355D3}"/>
-    <hyperlink ref="M7" r:id="rId39" display="http://codeforces.com/problemset/problem/224/B" xr:uid="{E0FBC4E2-B6BC-4327-8092-6C877DAF27F4}"/>
-    <hyperlink ref="M27" r:id="rId40" display="http://codeforces.com/problemset/problem/140/B" xr:uid="{4F0183FC-06C9-411A-9D6C-246B8DA4B4CB}"/>
-    <hyperlink ref="M57" r:id="rId41" display="http://codeforces.com/problemset/problem/219/B" xr:uid="{82F4538B-20D1-4FA6-808C-DACBD8458D3A}"/>
-    <hyperlink ref="M69" r:id="rId42" display="http://codeforces.com/problemset/problem/595/B" xr:uid="{6E381A41-A2AB-4B87-A93D-2D197316D172}"/>
-    <hyperlink ref="M72" r:id="rId43" display="http://codeforces.com/problemset/problem/483/B" xr:uid="{BD00E09B-D6FD-456C-BF50-23BBA61AB10C}"/>
-    <hyperlink ref="M43" r:id="rId44" display="http://codeforces.com/problemset/problem/275/B" xr:uid="{5E5767AC-906C-47FD-8D43-7423B8A5E61A}"/>
-    <hyperlink ref="M11" r:id="rId45" display="http://codeforces.com/problemset/problem/334/B" xr:uid="{D0F429A3-B699-4952-B79A-8608F1D075BB}"/>
-    <hyperlink ref="M44" r:id="rId46" display="http://codeforces.com/problemset/problem/606/B" xr:uid="{94F43F88-E454-472C-8DA4-26142EFE1AD7}"/>
-    <hyperlink ref="M47" r:id="rId47" display="http://codeforces.com/problemset/problem/208/B" xr:uid="{D911FF33-C4BF-4CEB-B7EE-036592D36E2F}"/>
-    <hyperlink ref="M76" r:id="rId48" display="http://codeforces.com/problemset/problem/340/B" xr:uid="{97A81011-C0EB-438A-80D5-F36628091140}"/>
-    <hyperlink ref="M90" r:id="rId49" display="http://codeforces.com/problemset/problem/580/B" xr:uid="{73D28C64-642E-400F-AF48-C77EA9D1B636}"/>
-    <hyperlink ref="M86" r:id="rId50" display="http://codeforces.com/problemset/problem/384/B" xr:uid="{65C43813-EAD3-4874-8325-BE5791086029}"/>
-    <hyperlink ref="M25" r:id="rId51" display="http://codeforces.com/problemset/problem/294/B" xr:uid="{E60BAB2B-4555-47F0-A76F-844225881450}"/>
-    <hyperlink ref="M95" r:id="rId52" display="http://codeforces.com/problemset/problem/231/B" xr:uid="{F108550D-34D1-4489-9D29-23FC7858E742}"/>
-    <hyperlink ref="M109" r:id="rId53" display="http://codeforces.com/problemset/problem/214/B" xr:uid="{C547ECC1-F336-4632-BA6F-1B336C070095}"/>
-    <hyperlink ref="M35" r:id="rId54" display="http://codeforces.com/problemset/problem/342/B" xr:uid="{F0225190-5319-4808-9376-370181F60B9C}"/>
-    <hyperlink ref="M101" r:id="rId55" display="http://codeforces.com/problemset/problem/287/B" xr:uid="{723FDC58-9ACE-43FD-A2D8-5A89BE6B3F00}"/>
-    <hyperlink ref="M22" r:id="rId56" display="http://codeforces.com/problemset/problem/225/B" xr:uid="{5706CDD7-F858-45A3-AA1B-DBFA48FE07F7}"/>
-    <hyperlink ref="M71" r:id="rId57" display="http://codeforces.com/problemset/problem/466/B" xr:uid="{956CBE7A-0A8A-41ED-91E9-B113035EB81B}"/>
-    <hyperlink ref="M58" r:id="rId58" display="http://codeforces.com/problemset/problem/404/B" xr:uid="{957C13FB-41A0-4C7C-9B22-07E47A5D7A67}"/>
-    <hyperlink ref="M83" r:id="rId59" display="http://codeforces.com/problemset/problem/148/B" xr:uid="{AFB6CDFA-AC35-4FFB-BB11-A29FB5D8415E}"/>
-    <hyperlink ref="M63" r:id="rId60" display="http://codeforces.com/problemset/problem/190/B" xr:uid="{5B795FC6-AFAF-48CA-9F87-28E908170086}"/>
-    <hyperlink ref="M68" r:id="rId61" display="http://codeforces.com/problemset/problem/593/B" xr:uid="{521A04FF-814E-4337-BBF0-149AC4E1CA9D}"/>
-    <hyperlink ref="M96" r:id="rId62" display="http://codeforces.com/problemset/problem/350/B" xr:uid="{5399C83A-AE57-4B5A-BE74-C81FB5567260}"/>
-    <hyperlink ref="M36" r:id="rId63" display="http://codeforces.com/problemset/problem/358/B" xr:uid="{C87469CF-43AF-4543-8E7D-21FE227C0E7A}"/>
-    <hyperlink ref="M48" r:id="rId64" display="http://codeforces.com/problemset/problem/551/B" xr:uid="{09114ED7-702D-42A8-9E06-8A22DEBD40E8}"/>
-    <hyperlink ref="M33" r:id="rId65" display="http://codeforces.com/problemset/problem/278/B" xr:uid="{A3DCBD8F-6261-4CED-8BF3-8BAC0DF62963}"/>
-    <hyperlink ref="M42" r:id="rId66" display="http://codeforces.com/problemset/problem/260/B" xr:uid="{05D267C3-6DE0-4AF1-8204-6F61280E91B9}"/>
-    <hyperlink ref="M53" r:id="rId67" display="http://codeforces.com/problemset/problem/538/B" xr:uid="{471D908E-D035-4FA7-BAB7-E3D5D8FA6FC0}"/>
-    <hyperlink ref="M6" r:id="rId68" display="http://codeforces.com/problemset/problem/711/B" xr:uid="{6CECCD20-E175-47A8-B56B-753E06A5C54B}"/>
-    <hyperlink ref="M30" r:id="rId69" display="http://codeforces.com/problemset/problem/716/B" xr:uid="{5515DFE8-1B8E-4A1D-B7F3-8BC04EF58F64}"/>
-    <hyperlink ref="M28" r:id="rId70" display="http://codeforces.com/problemset/problem/448/B" xr:uid="{4910F30E-5D25-4419-814F-5C4370B667AE}"/>
-    <hyperlink ref="M19" r:id="rId71" display="http://codeforces.com/problemset/problem/550/B" xr:uid="{239358A4-E7CD-401D-AC25-1FF4E80F603F}"/>
-    <hyperlink ref="M21" r:id="rId72" display="http://codeforces.com/problemset/problem/584/B" xr:uid="{DD3FAA29-2AB6-425C-9480-62F2761E5F8A}"/>
-    <hyperlink ref="M31" r:id="rId73" display="http://codeforces.com/problemset/problem/719/B" xr:uid="{766F5177-BA99-462A-92DA-918679217BF6}"/>
-    <hyperlink ref="M61" r:id="rId74" display="http://codeforces.com/problemset/problem/460/B" xr:uid="{0B4290B9-08AA-417D-BBFB-624686879BC0}"/>
-    <hyperlink ref="M88" r:id="rId75" display="http://codeforces.com/problemset/problem/510/B" xr:uid="{608DF26E-B00F-460C-A3A1-FE2ACC791AC3}"/>
-    <hyperlink ref="M93" r:id="rId76" display="http://codeforces.com/problemset/problem/742/B" xr:uid="{6AAE2C56-8BE9-47E6-9A25-474068803159}"/>
-    <hyperlink ref="M54" r:id="rId77" display="http://codeforces.com/problemset/problem/677/B" xr:uid="{7DEF9AA4-A451-469E-90D6-C77324A00749}"/>
-    <hyperlink ref="M81" r:id="rId78" display="http://codeforces.com/problemset/problem/699/B" xr:uid="{609894DB-0D55-41CE-9B47-6A26BE24CB62}"/>
-    <hyperlink ref="M62" r:id="rId79" display="http://codeforces.com/problemset/problem/675/B" xr:uid="{70511B42-4B69-4D59-80DF-F2937DF63D78}"/>
-    <hyperlink ref="M89" r:id="rId80" display="http://codeforces.com/problemset/problem/557/B" xr:uid="{1F4A9CDC-55DA-4AEE-8031-F3AE2AC306DB}"/>
-    <hyperlink ref="M87" r:id="rId81" display="http://codeforces.com/problemset/problem/493/B" xr:uid="{C7A8D80B-579A-43D3-83E1-D9C249598B27}"/>
-    <hyperlink ref="M18" r:id="rId82" display="http://codeforces.com/problemset/problem/525/B" xr:uid="{8867D7F3-A5C4-410E-9A80-0CBEBCF8AB61}"/>
-    <hyperlink ref="M55" r:id="rId83" display="http://codeforces.com/problemset/problem/703/B" xr:uid="{75D8E40B-146F-4267-8A3B-70E5B2053AF4}"/>
-    <hyperlink ref="M41" r:id="rId84" display="http://codeforces.com/problemset/problem/149/B" xr:uid="{84F44263-09B5-4AB8-AC65-50F99F246C86}"/>
-    <hyperlink ref="M75" r:id="rId85" display="http://codeforces.com/problemset/problem/166/B" xr:uid="{1EC20F43-FB45-4170-8962-59B3E4D46DD1}"/>
-    <hyperlink ref="M45" r:id="rId86" display="http://codeforces.com/problemset/problem/168/B" xr:uid="{ED8D5F20-AD03-43D2-A70A-A80ECF937C45}"/>
-    <hyperlink ref="M78" r:id="rId87" display="http://codeforces.com/problemset/problem/180/B" xr:uid="{C4769E77-D3A5-48A2-8DAE-248A3C47EADE}"/>
-    <hyperlink ref="M73" r:id="rId88" display="http://codeforces.com/problemset/problem/199/B" xr:uid="{EE2069B4-7894-4E93-A0F5-854CA89874D5}"/>
-    <hyperlink ref="M24" r:id="rId89" display="http://codeforces.com/problemset/problem/216/B" xr:uid="{AE183606-5A98-4774-96AB-0EEA038DEA75}"/>
-    <hyperlink ref="M46" r:id="rId90" display="http://codeforces.com/problemset/problem/202/B" xr:uid="{ECEE1DAB-50F9-4DA0-BD40-11D12E9C8116}"/>
-    <hyperlink ref="M8" r:id="rId91" display="http://codeforces.com/problemset/problem/237/B" xr:uid="{7FE2D6D3-C99E-4BE6-AF99-E8D57CC6B485}"/>
-    <hyperlink ref="M32" r:id="rId92" display="http://codeforces.com/problemset/problem/239/B" xr:uid="{B0034E36-55D7-451A-BBF4-A5C5E1E72C4C}"/>
-    <hyperlink ref="M110" r:id="rId93" display="http://codeforces.com/problemset/problem/244/B" xr:uid="{0F695B8C-C794-4B95-B4F1-D6922FFAB95B}"/>
-    <hyperlink ref="M70" r:id="rId94" display="http://codeforces.com/problemset/problem/281/B" xr:uid="{E4ED506F-D6ED-4BA5-A19F-E19BA33D5BDF}"/>
-    <hyperlink ref="M51" r:id="rId95" display="http://codeforces.com/problemset/problem/296/B" xr:uid="{FE7953FD-771A-40F0-ACD8-FDA0310D9789}"/>
-    <hyperlink ref="M111" r:id="rId96" display="http://codeforces.com/problemset/problem/252/B" xr:uid="{4386ED1D-8155-4BB0-8D66-2820EDEE4DD9}"/>
-    <hyperlink ref="M107" r:id="rId97" display="http://codeforces.com/problemset/problem/254/B" xr:uid="{BEB1A96C-550D-4E40-997A-9B35087D1E1C}"/>
-    <hyperlink ref="M64" r:id="rId98" display="http://codeforces.com/problemset/problem/305/B" xr:uid="{0B580309-C7D5-42E9-A84D-76925C793134}"/>
-    <hyperlink ref="M74" r:id="rId99" display="http://codeforces.com/problemset/problem/336/B" xr:uid="{421CE6AF-FA03-48D6-AD84-596DCFCFCD37}"/>
-    <hyperlink ref="M77" r:id="rId100" display="http://codeforces.com/problemset/problem/382/B" xr:uid="{D46A9041-B394-49FF-80E2-6404C6F349FD}"/>
-    <hyperlink ref="M66" r:id="rId101" display="http://codeforces.com/problemset/problem/373/B" xr:uid="{A48E72F3-305F-4807-8F07-BBB5AE4946D7}"/>
-    <hyperlink ref="M97" r:id="rId102" display="http://codeforces.com/problemset/problem/374/B" xr:uid="{F2B8E757-1676-43F2-9EBB-9925E43F07C0}"/>
-    <hyperlink ref="M104" r:id="rId103" display="http://codeforces.com/problemset/problem/390/B" xr:uid="{C1E77C77-1EE9-467B-83B9-B23CE2854B09}"/>
-    <hyperlink ref="M98" r:id="rId104" display="http://codeforces.com/problemset/problem/393/B" xr:uid="{2A2A3BF7-8484-4F9B-9700-5C96BF01C97C}"/>
-    <hyperlink ref="M50" r:id="rId105" display="http://codeforces.com/problemset/problem/399/B" xr:uid="{C20C989E-45DC-4981-9A22-C785EB531645}"/>
-    <hyperlink ref="M112" r:id="rId106" display="http://codeforces.com/problemset/problem/488/B" xr:uid="{23AD0132-252F-445E-85B7-4B2BD149211D}"/>
-    <hyperlink ref="M40" r:id="rId107" display="http://codeforces.com/problemset/problem/752/B" xr:uid="{6208007A-C8BE-42E2-AD28-DC8E3DE6BF59}"/>
-    <hyperlink ref="M56" r:id="rId108" display="http://codeforces.com/problemset/problem/757/B" xr:uid="{EDDF98EA-0C80-4C53-8564-BE65A6EF133E}"/>
-    <hyperlink ref="M113" r:id="rId109" display="http://codeforces.com/problemset/problem/767/B" xr:uid="{1D0BB25E-5820-4079-92D2-15C5A2B7439D}"/>
-    <hyperlink ref="M100" r:id="rId110" display="http://codeforces.com/problemset/problem/768/B" xr:uid="{D01E6780-0B95-45EC-866C-4D01333D4996}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="L108:L109 L110:L120" formulaRange="1"/>
   </ignoredErrors>
